--- a/hifi-slide/v2.0.0/hifi-slide-v2.0.0.xlsx
+++ b/hifi-slide/v2.0.0/hifi-slide-v2.0.0.xlsx
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="289">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -563,6 +563,18 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>In-House</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
+  </si>
+  <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
@@ -605,6 +617,18 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
+    <t>Evident Scientific (Olympus)</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024782</t>
+  </si>
+  <si>
     <t>Keyence</t>
   </si>
   <si>
@@ -641,6 +665,12 @@
     <t>https://identifiers.org/RRID:SCR_010233</t>
   </si>
   <si>
+    <t>Motic</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024856</t>
+  </si>
+  <si>
     <t>Ionpath</t>
   </si>
   <si>
@@ -674,6 +704,12 @@
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
     <t>Axio Observer 7</t>
   </si>
   <si>
@@ -692,18 +728,42 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>DM6 B</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024857</t>
+  </si>
+  <si>
     <t>NanoZoomer 2.0-HT</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_021658</t>
   </si>
   <si>
+    <t>Phenocycler-Fusion 2.0</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023773</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024448</t>
   </si>
   <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
   </si>
   <si>
@@ -728,6 +788,12 @@
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>VS200 Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024783</t>
+  </si>
+  <si>
     <t>Axio Observer 5</t>
   </si>
   <si>
@@ -788,6 +854,12 @@
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
     <t>QTRAP 5500</t>
   </si>
   <si>
@@ -1058,7 +1130,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-24T09:47:56-08:00</t>
+    <t>2024-01-29T14:16:46-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1173,41 +1245,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="2" width="16.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="6.33984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="23.45703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="12.28515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="12.66796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="7" width="10.8984375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="8" width="28.46484375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="9" width="27.87109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="10" width="28.5625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="11" width="27.40234375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="12" width="47.64453125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="13" width="46.48828125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="14" width="16.90625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" style="15" width="9.81640625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="18.53125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="17.37109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="14.96484375" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="13.8046875" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="16.42578125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="18.27734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" style="22" width="17.12109375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" style="23" width="15.05859375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" style="24" width="26.43359375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" style="25" width="25.2734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" style="26" width="7.8125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" style="27" width="36.68359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" style="28" width="35.25" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" style="29" width="34.08984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" style="30" width="24.6328125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" style="31" width="32.2265625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" style="32" width="31.0703125" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" style="33" width="8.61328125" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" style="34" width="24.86328125" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" style="35" width="22.30078125" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" style="36" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="2" width="14.39453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="5.46875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="20.234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="10.59765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="10.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="7" width="9.40234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="8" width="24.5546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="9" width="24.0390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="10" width="24.63671875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="11" width="23.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="12" width="41.1015625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="13" width="40.1015625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="14" width="14.5859375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" style="15" width="8.46484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="15.984375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="12.91015625" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="11.91015625" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="14.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="15.765625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="14.765625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" style="23" width="12.98828125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" style="24" width="22.80078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" style="25" width="21.80078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" style="26" width="6.7421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" style="27" width="31.64453125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" style="28" width="30.40625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" style="29" width="29.40625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" style="30" width="21.25" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" style="31" width="27.80078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" style="32" width="26.80078125" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" style="33" width="7.4296875" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" style="34" width="21.44921875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" style="35" width="19.23828125" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" style="36" width="16.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1233,96 +1305,96 @@
         <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>256</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="AI2" t="s">
-        <v>257</v>
+      <c r="AI2" t="s" s="36">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -1337,10 +1409,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$19</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$38</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$45</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1354,7 +1426,7 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
+      <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
@@ -1400,7 +1472,7 @@
       <formula2>3.4028235E38</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AB2:AB1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'target_retrieval_incubation_time_unit'!$A$1:$A$1</formula1>
+      <formula1>'target_retrieval_incubation_tim'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="AC2:AC1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
@@ -1411,7 +1483,7 @@
       <formula2>3.4028235E38</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AE2:AE1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'proteinasek_incubation_time_unit'!$A$1:$A$1</formula1>
+      <formula1>'proteinasek_incubation_time_uni'!$A$1:$A$1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1429,19 +1501,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1" t="s">
-        <v>221</v>
+      <c r="A1" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>245</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" t="s">
-        <v>223</v>
+      <c r="A2" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -1458,11 +1530,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B1" t="s">
-        <v>230</v>
+      <c r="A1" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -1479,63 +1551,63 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>232</v>
+      <c r="A1" t="s" s="0">
+        <v>256</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>233</v>
+      <c r="A2" t="s" s="0">
+        <v>257</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>234</v>
+      <c r="A3" t="s" s="0">
+        <v>258</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>235</v>
+      <c r="A4" t="s" s="0">
+        <v>259</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>236</v>
+      <c r="A5" t="s" s="0">
+        <v>260</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>237</v>
+      <c r="A6" t="s" s="0">
+        <v>261</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>238</v>
+      <c r="A7" t="s" s="0">
+        <v>262</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>239</v>
+      <c r="A8" t="s" s="0">
+        <v>263</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>240</v>
+      <c r="A9" t="s" s="0">
+        <v>264</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>241</v>
+      <c r="A10" t="s" s="0">
+        <v>265</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>242</v>
+      <c r="A11" t="s" s="0">
+        <v>266</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>243</v>
+      <c r="A12" t="s" s="0">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -1552,11 +1624,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" t="s">
-        <v>213</v>
+      <c r="A1" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -1573,11 +1645,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" t="s">
-        <v>213</v>
+      <c r="A1" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -1594,11 +1666,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" t="s">
-        <v>213</v>
+      <c r="A1" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -1614,38 +1686,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.9921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="81.078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.20703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.65234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.1484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="69.94140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D1" t="s">
-        <v>263</v>
+      <c r="A1" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>287</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D2" t="s">
-        <v>264</v>
+      <c r="B2" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -1662,266 +1734,266 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>59</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>67</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>69</v>
       </c>
     </row>
@@ -1939,90 +2011,90 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>74</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>76</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>78</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>80</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>82</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>86</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>88</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>90</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>92</v>
       </c>
     </row>
@@ -2040,12 +2112,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>94</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>95</v>
       </c>
     </row>
@@ -2056,122 +2128,162 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>98</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>100</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>102</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>104</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>106</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>110</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>112</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>114</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>116</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>118</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>122</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>124</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2181,314 +2293,370 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" t="s">
-        <v>127</v>
+      <c r="A1" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>137</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" t="s">
-        <v>129</v>
+      <c r="A2" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>139</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" t="s">
-        <v>131</v>
+      <c r="A3" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>141</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" t="s">
-        <v>133</v>
+      <c r="A4" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>143</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" t="s">
-        <v>135</v>
+      <c r="A5" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>145</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" t="s">
-        <v>137</v>
+      <c r="A6" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>147</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" t="s">
-        <v>139</v>
+      <c r="A7" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>149</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" t="s">
-        <v>141</v>
+      <c r="A8" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>151</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" t="s">
-        <v>143</v>
+      <c r="A9" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>153</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" t="s">
-        <v>145</v>
+      <c r="A10" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" t="s">
-        <v>147</v>
+      <c r="A11" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>157</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" t="s">
-        <v>149</v>
+      <c r="A12" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>159</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" t="s">
-        <v>151</v>
+      <c r="A13" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>161</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B14" t="s">
-        <v>153</v>
+      <c r="A14" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>163</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" t="s">
-        <v>155</v>
+      <c r="A15" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>165</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" t="s">
-        <v>157</v>
+      <c r="A16" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>167</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" t="s">
-        <v>159</v>
+      <c r="A17" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>169</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" t="s">
-        <v>161</v>
+      <c r="A18" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>171</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" t="s">
-        <v>163</v>
+      <c r="A19" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>173</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>164</v>
-      </c>
-      <c r="B20" t="s">
-        <v>165</v>
+      <c r="A20" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>175</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B21" t="s">
-        <v>167</v>
+      <c r="A21" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>177</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22" t="s">
-        <v>169</v>
+      <c r="A22" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>179</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" t="s">
-        <v>171</v>
+      <c r="A23" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>181</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" t="s">
-        <v>173</v>
+      <c r="A24" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>183</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25" t="s">
-        <v>175</v>
+      <c r="A25" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>185</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" t="s">
-        <v>177</v>
+      <c r="A26" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>187</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>178</v>
-      </c>
-      <c r="B27" t="s">
-        <v>179</v>
+      <c r="A27" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>189</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>180</v>
-      </c>
-      <c r="B28" t="s">
-        <v>181</v>
+      <c r="A28" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>191</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" t="s">
-        <v>183</v>
+      <c r="A29" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>193</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>184</v>
-      </c>
-      <c r="B30" t="s">
-        <v>185</v>
+      <c r="A30" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>195</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>186</v>
-      </c>
-      <c r="B31" t="s">
-        <v>187</v>
+      <c r="A31" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>197</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>188</v>
-      </c>
-      <c r="B32" t="s">
-        <v>189</v>
+      <c r="A32" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>199</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>190</v>
-      </c>
-      <c r="B33" t="s">
-        <v>191</v>
+      <c r="A33" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>201</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B34" t="s">
-        <v>193</v>
+      <c r="A34" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>203</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B35" t="s">
-        <v>195</v>
+      <c r="A35" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>205</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" t="s">
-        <v>197</v>
+      <c r="A36" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>207</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>198</v>
-      </c>
-      <c r="B37" t="s">
-        <v>199</v>
+      <c r="A37" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>209</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>200</v>
-      </c>
-      <c r="B38" t="s">
-        <v>201</v>
+      <c r="A38" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2505,43 +2673,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" t="s">
-        <v>205</v>
+      <c r="A1" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>229</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" t="s">
-        <v>207</v>
+      <c r="A2" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>231</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" t="s">
-        <v>209</v>
+      <c r="A3" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" t="s">
-        <v>211</v>
+      <c r="A4" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>235</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B5" t="s">
-        <v>213</v>
+      <c r="A5" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2558,27 +2726,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" t="s">
-        <v>207</v>
+      <c r="A1" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>231</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" t="s">
-        <v>209</v>
+      <c r="A2" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" t="s">
-        <v>211</v>
+      <c r="A3" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2595,19 +2763,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1" t="s">
-        <v>221</v>
+      <c r="A1" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>245</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" t="s">
-        <v>223</v>
+      <c r="A2" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/hifi-slide/v2.0.0/hifi-slide-v2.0.0.xlsx
+++ b/hifi-slide/v2.0.0/hifi-slide-v2.0.0.xlsx
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="311">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -380,6 +380,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
   </si>
   <si>
+    <t>MUSIC</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -485,6 +491,12 @@
     <t>analyte_class</t>
   </si>
   <si>
+    <t>DNA + RNA</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
@@ -605,6 +617,12 @@
     <t>https://identifiers.org/RRID:SCR_023606</t>
   </si>
   <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_000004</t>
+  </si>
+  <si>
     <t>Sciex</t>
   </si>
   <si>
@@ -617,6 +635,12 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Leica Microsystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008960</t>
+  </si>
+  <si>
     <t>Akoya Biosciences</t>
   </si>
   <si>
@@ -659,6 +683,12 @@
     <t>https://identifiers.org/RRID:SCR_023609</t>
   </si>
   <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
     <t>Illumina</t>
   </si>
   <si>
@@ -698,16 +728,142 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
+    <t>EVOS M7000</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025070</t>
+  </si>
+  <si>
+    <t>NovaSeq X</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024569</t>
+  </si>
+  <si>
+    <t>NanoZoomer 2.0-HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021658</t>
+  </si>
+  <si>
+    <t>Lightsheet 7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024448</t>
+  </si>
+  <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
+    <t>Q Exactive UHMR</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020571</t>
+  </si>
+  <si>
+    <t>Q Exactive</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020565</t>
+  </si>
+  <si>
+    <t>Zyla 4.2 sCMOS</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023610</t>
+  </si>
+  <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
+    <t>QTRAP 5500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020517</t>
+  </si>
+  <si>
+    <t>BZ-X800</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023617</t>
+  </si>
+  <si>
+    <t>NextSeq 500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_014983</t>
+  </si>
+  <si>
+    <t>NanoZoomer S360</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023761</t>
+  </si>
+  <si>
+    <t>Hyperion Imaging System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023195</t>
+  </si>
+  <si>
+    <t>NovaSeq X Plus</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024568</t>
+  </si>
+  <si>
+    <t>NanoZoomer-SQ</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023763</t>
+  </si>
+  <si>
+    <t>NextSeq 550</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_016381</t>
+  </si>
+  <si>
+    <t>Digital Spatial Profiler</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021660</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
-    <t>MoticEasyScan One</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024855</t>
+    <t>BZ-X810</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025160</t>
   </si>
   <si>
     <t>Axio Observer 7</t>
@@ -716,52 +872,34 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
-    <t>NovaSeq X</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024569</t>
-  </si>
-  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>PhenoImager Fusion</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023274</t>
+  </si>
+  <si>
     <t>DM6 B</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024857</t>
   </si>
   <si>
-    <t>NanoZoomer 2.0-HT</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021658</t>
-  </si>
-  <si>
     <t>Phenocycler-Fusion 2.0</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023773</t>
   </si>
   <si>
-    <t>Lightsheet 7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024448</t>
-  </si>
-  <si>
-    <t>Phenocycler-Fusion 1.0</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
-  </si>
-  <si>
-    <t>DNBSEQ-T7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024847</t>
+    <t>Aperio CS2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025111</t>
   </si>
   <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
@@ -776,18 +914,18 @@
     <t>https://identifiers.org/RRID:SCR_024449</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
-  </si>
-  <si>
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>TissueScope LE Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024995</t>
+  </si>
+  <si>
     <t>VS200 Slide Scanner</t>
   </si>
   <si>
@@ -818,12 +956,6 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
-    <t>Q Exactive UHMR</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020571</t>
-  </si>
-  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -836,40 +968,16 @@
     <t>https://identifiers.org/RRID:SCR_016387</t>
   </si>
   <si>
-    <t>Q Exactive</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020565</t>
-  </si>
-  <si>
-    <t>Zyla 4.2 sCMOS</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023610</t>
-  </si>
-  <si>
     <t>HiSeq 4000</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
-    <t>Custom: Multiphoton</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
-  </si>
-  <si>
-    <t>QTRAP 5500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020517</t>
-  </si>
-  <si>
-    <t>BZ-X800</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023617</t>
+    <t>Aperio AT2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021256</t>
   </si>
   <si>
     <t>MIBIscope</t>
@@ -878,18 +986,6 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
-    <t>NextSeq 500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_014983</t>
-  </si>
-  <si>
-    <t>NanoZoomer S360</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023761</t>
-  </si>
-  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -902,36 +998,6 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
-    <t>Hyperion Imaging System</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023195</t>
-  </si>
-  <si>
-    <t>NovaSeq X Plus</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024568</t>
-  </si>
-  <si>
-    <t>NanoZoomer-SQ</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023763</t>
-  </si>
-  <si>
-    <t>NextSeq 550</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_016381</t>
-  </si>
-  <si>
-    <t>Digital Spatial Profiler</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021660</t>
-  </si>
-  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -1130,7 +1196,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-01-29T14:16:46-08:00</t>
+    <t>2024-04-01T14:51:57-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1296,97 +1362,97 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>280</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2">
@@ -1394,25 +1460,25 @@
         <v>4</v>
       </c>
       <c r="AI2" t="s" s="36">
-        <v>281</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="25">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$33</formula1>
+      <formula1>'dataset_type'!$A$1:$A$34</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$11</formula1>
+      <formula1>'analyte_class'!$A$1:$A$12</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$19</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$45</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1502,18 +1568,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>245</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>247</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -1531,10 +1597,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>254</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -1552,62 +1618,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>257</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>258</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>259</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>260</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>262</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>263</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>264</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>265</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>266</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -1625,10 +1691,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>237</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -1646,10 +1712,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>237</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -1667,10 +1733,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>237</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -1694,16 +1760,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>287</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
@@ -1711,13 +1777,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>288</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -1727,7 +1793,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1997,6 +2063,14 @@
         <v>69</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2004,7 +2078,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2012,90 +2086,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2113,12 +2195,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2128,7 +2210,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2136,154 +2218,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2293,7 +2399,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2301,362 +2407,410 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>225</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2674,42 +2828,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>229</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>237</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2727,26 +2881,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2764,18 +2918,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>245</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>247</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/hifi-slide/v2.0.0/hifi-slide-v2.0.0.xlsx
+++ b/hifi-slide/v2.0.0/hifi-slide-v2.0.0.xlsx
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="323">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -332,6 +332,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
     <t>Visium (with probes)</t>
   </si>
   <si>
@@ -428,6 +434,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>Resolve</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000384</t>
+  </si>
+  <si>
     <t>RNAseq</t>
   </si>
   <si>
@@ -509,22 +521,52 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
   </si>
   <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
+  </si>
+  <si>
+    <t>Metabolite</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+  </si>
+  <si>
+    <t>Unsaturated Lipid</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
+  </si>
+  <si>
+    <t>Saturated Lipid</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
+  </si>
+  <si>
+    <t>Lipid</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
+  </si>
+  <si>
     <t>Fluorochrome</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_51217</t>
   </si>
   <si>
-    <t>RNA</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
-  </si>
-  <si>
-    <t>Metabolite</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+    <t>Collagen</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C16447</t>
   </si>
   <si>
     <t>DNA</t>
@@ -551,27 +593,15 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
   </si>
   <si>
-    <t>Lipid</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
@@ -620,7 +650,7 @@
     <t>GE Healthcare</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_000004</t>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
   </si>
   <si>
     <t>Sciex</t>
@@ -728,6 +758,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
+  </si>
+  <si>
     <t>MoticEasyScan One</t>
   </si>
   <si>
@@ -1070,18 +1106,18 @@
     <t>mapped_area_unit</t>
   </si>
   <si>
+    <t>mm^2</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000082</t>
+  </si>
+  <si>
     <t>um^2</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/UO_0010001</t>
   </si>
   <si>
-    <t>mm^2</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000082</t>
-  </si>
-  <si>
     <t>spot_size_value</t>
   </si>
   <si>
@@ -1109,13 +1145,28 @@
     <t>A1</t>
   </si>
   <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Lane 1</t>
+  </si>
+  <si>
     <t>Lane 2</t>
   </si>
   <si>
     <t>Lane 3</t>
   </si>
   <si>
-    <t>Lane 1</t>
+    <t>Lane 4</t>
+  </si>
+  <si>
+    <t>Lane 5</t>
   </si>
   <si>
     <t>Lane 6</t>
@@ -1124,24 +1175,9 @@
     <t>Lane 7</t>
   </si>
   <si>
-    <t>Lane 4</t>
-  </si>
-  <si>
-    <t>Lane 5</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>Lane 8</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
     <t>permeabilization_time_value</t>
   </si>
   <si>
@@ -1196,7 +1232,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-04-01T14:51:57-07:00</t>
+    <t>2024-08-03T11:45:49-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1362,97 +1398,97 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2">
@@ -1460,16 +1496,16 @@
         <v>4</v>
       </c>
       <c r="AI2" t="s" s="36">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="25">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$34</formula1>
+      <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$12</formula1>
+      <formula1>'analyte_class'!$A$1:$A$15</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -1478,7 +1514,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$51</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1568,18 +1604,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -1597,10 +1633,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -1618,62 +1654,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -1691,10 +1727,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -1712,10 +1748,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -1733,10 +1769,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -1760,16 +1796,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2">
@@ -1777,13 +1813,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -1793,7 +1829,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2071,6 +2107,22 @@
         <v>71</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2078,7 +2130,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2086,98 +2138,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2195,12 +2271,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2218,178 +2294,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2399,7 +2475,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2407,410 +2483,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>247</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2828,42 +2912,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2881,26 +2965,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2918,18 +3002,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/hifi-slide/v2.0.0/hifi-slide-v2.0.0.xlsx
+++ b/hifi-slide/v2.0.0/hifi-slide-v2.0.0.xlsx
@@ -142,11 +142,13 @@
     </comment>
     <comment ref="O1" authorId="1">
       <text>
-        <t>(Required) For Visium, this is the area of spots that was covered by tissue
-within the captured area, not the total possible captured area which is fixed.
-For GeoMx this would be the area of the AOI being captured. For HiFi this is the
-summed area of the ROIs in a single flowcell lane. For CosMx, Xenium and
-Resolve, this is the area of the FOV (aka ROI) region being captured.</t>
+        <t>For Visium, this is the area of spots that was covered by tissue within the
+captured area, not the total possible captured area which is fixed. For GeoMx
+this would be the area of the AOI being captured. For HiFi this is the summed
+area of the ROIs in a single flowcell lane. For CosMx and Resolve, this is the
+area of the FOV (aka ROI) region being captured. For Xenium this is the total
+area of the FOV regions (aka ROI) being captured. For Stereo-Seq this is the
+number of beads.</t>
       </text>
     </comment>
     <comment ref="P1" authorId="1">
@@ -243,9 +245,10 @@
     </comment>
     <comment ref="AF1" authorId="1">
       <text>
-        <t>A label for the region of interest (ROI). For Xenium, Resolve and CosMx, this is
-the field of view (FOV) label. For GeoMx this can be found in the "Initial
-Dataset" spreadsheet (download from within Data Analysis Suite).</t>
+        <t>A label for the region of interest. For Resolve and CosMx, this is the field of
+view (FOV) label. For Xenium this is the ID of the region containing the
+analysis. For GeoMx this can be found in the "Initial Dataset" spreadsheet
+(download from within Data Analysis Suite).</t>
       </text>
     </comment>
     <comment ref="AG1" authorId="1">
@@ -1232,7 +1235,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-08-03T11:45:49-07:00</t>
+    <t>2024-10-17T13:01:42-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/hifi-slide/v2.0.0/hifi-slide-v2.0.0.xlsx
+++ b/hifi-slide/v2.0.0/hifi-slide-v2.0.0.xlsx
@@ -273,7 +273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="331">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -413,6 +413,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
@@ -437,6 +443,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>DART-FISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000396</t>
+  </si>
+  <si>
     <t>Resolve</t>
   </si>
   <si>
@@ -512,18 +524,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
-    <t>Nucleic acid and protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -536,13 +548,19 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
   </si>
   <si>
-    <t>Unsaturated Lipid</t>
+    <t>Unsaturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
   </si>
   <si>
-    <t>Saturated Lipid</t>
+    <t>Lipid + metabolite</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000401</t>
+  </si>
+  <si>
+    <t>Saturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
@@ -578,24 +596,24 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C449</t>
   </si>
   <si>
-    <t>Endogenous fluorophores</t>
+    <t>Peptide</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
+  </si>
+  <si>
+    <t>Polysaccharide</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
+  </si>
+  <si>
+    <t>Endogenous fluorophore</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000131</t>
   </si>
   <si>
-    <t>Peptide</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
-  </si>
-  <si>
-    <t>Polysaccharide</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
@@ -698,6 +716,12 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>10x Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023672</t>
+  </si>
+  <si>
     <t>NanoString</t>
   </si>
   <si>
@@ -1235,7 +1259,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-10-17T13:01:42-07:00</t>
+    <t>2025-01-08T12:46:30-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1401,97 +1425,97 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2">
@@ -1499,22 +1523,22 @@
         <v>4</v>
       </c>
       <c r="AI2" t="s" s="36">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="25">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$15</formula1>
+      <formula1>'analyte_class'!$A$1:$A$16</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
@@ -1607,18 +1631,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -1636,10 +1660,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -1657,62 +1681,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -1730,10 +1754,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +1775,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -1772,10 +1796,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -1799,16 +1823,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2">
@@ -1816,13 +1840,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -1832,7 +1856,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2126,6 +2150,22 @@
         <v>75</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2133,7 +2173,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2141,122 +2181,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2274,12 +2322,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2289,7 +2337,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2297,178 +2345,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2486,418 +2542,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2915,42 +2971,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2968,26 +3024,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -3005,18 +3061,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/hifi-slide/v2.0.0/hifi-slide-v2.0.0.xlsx
+++ b/hifi-slide/v2.0.0/hifi-slide-v2.0.0.xlsx
@@ -56,11 +56,11 @@
     <comment ref="C1" authorId="1">
       <text>
         <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurment and preparation. For example for an imaging assay, the protocol might
-include staining of a section through the creation of an OME-TIFF file. In this
-case the protocol would include any image processing steps required to create
-the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
+procurement and preparation. For example for an imaging assay, the protocol
+might begin with staining of a section and finalize with the creation of an
+OME-TIFF file. In this case the protocol would include any image processing
+steps required to create the OME-TIFF file. Example:
+https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
@@ -112,8 +112,8 @@
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acqusition instrument was last serviced by the
-vendor. This provides a metric for assessing drift in data capture.</t>
+        <t>The amount of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture.</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
@@ -273,7 +273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="369">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -359,10 +359,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
   </si>
   <si>
-    <t>DBiT</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
   </si>
   <si>
     <t>SIMS</t>
@@ -461,6 +461,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
     <t>MERFISH</t>
   </si>
   <si>
@@ -515,6 +521,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
+    <t>MS Lipidomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -626,40 +644,106 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
+    <t>Cytiva</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023581</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008452</t>
+  </si>
+  <si>
+    <t>Zeiss Microscopy</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023607</t>
+  </si>
+  <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
+  </si>
+  <si>
+    <t>Leica Microsystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008960</t>
+  </si>
+  <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
+    <t>NanoString</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023912</t>
+  </si>
+  <si>
+    <t>Element Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026453</t>
+  </si>
+  <si>
+    <t>Andor</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023609</t>
+  </si>
+  <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_010233</t>
+  </si>
+  <si>
+    <t>Ionpath</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023605</t>
+  </si>
+  <si>
     <t>In-House</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
   </si>
   <si>
-    <t>BGI Genomics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024848</t>
-  </si>
-  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023911</t>
   </si>
   <si>
-    <t>Cytiva</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023581</t>
-  </si>
-  <si>
-    <t>Thermo Fisher Scientific</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008452</t>
-  </si>
-  <si>
-    <t>Zeiss Microscopy</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023607</t>
+    <t>Singular Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026683</t>
+  </si>
+  <si>
+    <t>Vizgen</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026274</t>
   </si>
   <si>
     <t>Standard BioTools (Fluidigm)</t>
@@ -668,12 +752,6 @@
     <t>https://identifiers.org/RRID:SCR_023606</t>
   </si>
   <si>
-    <t>GE Healthcare</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_025461</t>
-  </si>
-  <si>
     <t>Sciex</t>
   </si>
   <si>
@@ -686,18 +764,6 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
-    <t>Leica Microsystems</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008960</t>
-  </si>
-  <si>
-    <t>Akoya Biosciences</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023774</t>
-  </si>
-  <si>
     <t>Evident Scientific (Olympus)</t>
   </si>
   <si>
@@ -722,48 +788,18 @@
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
-    <t>NanoString</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023912</t>
-  </si>
-  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_017105</t>
   </si>
   <si>
-    <t>Andor</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023609</t>
-  </si>
-  <si>
-    <t>Huron Digital Pathology</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024996</t>
-  </si>
-  <si>
-    <t>Illumina</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_010233</t>
-  </si>
-  <si>
     <t>Motic</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024856</t>
   </si>
   <si>
-    <t>Ionpath</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023605</t>
-  </si>
-  <si>
     <t>acquisition_instrument_model</t>
   </si>
   <si>
@@ -815,6 +851,12 @@
     <t>https://identifiers.org/RRID:SCR_021658</t>
   </si>
   <si>
+    <t>timsTOF Ultra 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026541</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
@@ -833,12 +875,30 @@
     <t>https://identifiers.org/RRID:SCR_024847</t>
   </si>
   <si>
+    <t>timsTOF Pro</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026544</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
   </si>
   <si>
+    <t>AVITI</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026452</t>
+  </si>
+  <si>
+    <t>timsTOF Pro 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026545</t>
+  </si>
+  <si>
     <t>Q Exactive UHMR</t>
   </si>
   <si>
@@ -851,12 +911,24 @@
     <t>https://identifiers.org/RRID:SCR_020565</t>
   </si>
   <si>
+    <t>timsTOF SCP</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026542</t>
+  </si>
+  <si>
     <t>Zyla 4.2 sCMOS</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023610</t>
   </si>
   <si>
+    <t>Helios</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_019916</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -869,12 +941,30 @@
     <t>https://identifiers.org/RRID:SCR_020517</t>
   </si>
   <si>
+    <t>timsTOF Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026540</t>
+  </si>
+  <si>
     <t>BZ-X800</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023617</t>
   </si>
   <si>
+    <t>CyTOF 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026551</t>
+  </si>
+  <si>
+    <t>G4X Spatial Sequencer</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026684</t>
+  </si>
+  <si>
     <t>NextSeq 500</t>
   </si>
   <si>
@@ -899,6 +989,12 @@
     <t>https://identifiers.org/RRID:SCR_024568</t>
   </si>
   <si>
+    <t>CyTOF XT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026344</t>
+  </si>
+  <si>
     <t>NanoZoomer-SQ</t>
   </si>
   <si>
@@ -941,6 +1037,12 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>timsTOF HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026543</t>
+  </si>
+  <si>
     <t>PhenoImager Fusion</t>
   </si>
   <si>
@@ -1019,6 +1121,12 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>MERSCOPE</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000404</t>
+  </si>
+  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -1061,6 +1169,12 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
+    <t>MERSCOPE Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026273</t>
+  </si>
+  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -1259,7 +1373,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-01-08T12:46:30-08:00</t>
+    <t>2025-04-24T10:51:47-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1425,97 +1539,97 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>322</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
@@ -1523,13 +1637,13 @@
         <v>4</v>
       </c>
       <c r="AI2" t="s" s="36">
-        <v>323</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="25">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$38</formula1>
+      <formula1>'dataset_type'!$A$1:$A$41</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1538,10 +1652,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1631,18 +1745,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>287</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>289</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -1660,10 +1774,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>296</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -1681,62 +1795,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>298</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>299</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>300</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>301</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>302</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>303</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>304</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>305</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>306</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>307</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>308</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>309</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -1754,10 +1868,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>279</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -1775,10 +1889,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>279</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -1796,10 +1910,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>279</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -1823,16 +1937,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>329</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2">
@@ -1840,13 +1954,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>330</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -1856,7 +1970,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2164,6 +2278,30 @@
       </c>
       <c r="B38" t="s" s="0">
         <v>79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2181,130 +2319,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2322,12 +2460,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2337,7 +2475,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2345,186 +2483,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>162</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2534,7 +2696,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2542,418 +2704,530 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>267</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2971,42 +3245,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>273</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>275</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>277</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>279</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3024,26 +3298,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>273</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>275</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>277</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -3061,18 +3335,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>287</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>289</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/hifi-slide/v2.0.0/hifi-slide-v2.0.0.xlsx
+++ b/hifi-slide/v2.0.0/hifi-slide-v2.0.0.xlsx
@@ -273,7 +273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="373">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1013,6 +1013,18 @@
     <t>https://identifiers.org/RRID:SCR_021660</t>
   </si>
   <si>
+    <t>timsTOF FleX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026925</t>
+  </si>
+  <si>
+    <t>timsTOF FleX MALDI-2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023615</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
@@ -1082,7 +1094,7 @@
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_023615</t>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000433</t>
   </si>
   <si>
     <t>TissueScope LE Slide Scanner</t>
@@ -1373,7 +1385,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-04-24T10:51:47-07:00</t>
+    <t>2025-05-12T10:16:53-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1551,85 +1563,85 @@
         <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2">
@@ -1637,7 +1649,7 @@
         <v>4</v>
       </c>
       <c r="AI2" t="s" s="36">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -1655,7 +1667,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1745,18 +1757,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -1774,10 +1786,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -1795,62 +1807,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -1868,10 +1880,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -1889,10 +1901,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -1910,10 +1922,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -1937,16 +1949,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2">
@@ -1954,13 +1966,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -2696,7 +2708,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3152,26 +3164,26 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>149</v>
+        <v>288</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>150</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>290</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>291</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60">
@@ -3228,6 +3240,22 @@
       </c>
       <c r="B66" t="s" s="0">
         <v>305</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3245,42 +3273,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -3298,26 +3326,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -3335,18 +3363,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/hifi-slide/v2.0.0/hifi-slide-v2.0.0.xlsx
+++ b/hifi-slide/v2.0.0/hifi-slide-v2.0.0.xlsx
@@ -35,137 +35,143 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
-section or suspension) used to perform this assay. For example, for a RNAseq
-assay, the parent would be the suspension, whereas, for one of the imaging
-assays, the parent would be the tissue section. If an assay comes from multiple
-parent samples then this should be a comma separated list. Example:
-HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
+        <t>(Required) The unique identifier from HuBMAP or SenNet for the sample (such as a
+block, section, or suspension) used to perform the assay. For instance, in an
+RNAseq assay, the parent sample would be the suspension, while in imaging
+assays, it would be the tissue section. If the assay is derived from multiple
+parent samples, this field should contain a comma-separated list of identifiers.
+Example: HBM386.ZGKG.235, HBM672.MKPK.442</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
       <text>
-        <t>An internal field labs can use it to add whatever ID(s) they want or need for
-dataset validation and tracking. This could be a single ID (e.g.,
-"Visium_9OLC_A4_S1") or a delimited list of IDs (e.g., “9OL; 9OLC.A2;
-Visium_9OLC_A4_S1”). This field will not be accessible to anyone outside of the
-consortium and no effort will be made to check if IDs provided by one data
-provider are also used by another.</t>
+        <t>A locally assigned identifier provided by the data provider for the dataset. It
+is used to reference an external metadata record that may be maintained
+independently, enabling traceability and supporting provenance tracking.
+Example: Visium_9OLC_A4_S1</t>
       </text>
     </comment>
     <comment ref="C1" authorId="1">
       <text>
-        <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurement and preparation. For example for an imaging assay, the protocol
-might begin with staining of a section and finalize with the creation of an
-OME-TIFF file. In this case the protocol would include any image processing
-steps required to create the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
+        <t>(Required) The DOI for the protocols.io page that details the assay or the
+procedures used for sample procurement and preparation. For example, in the case
+of an imaging assay, the protocol may start with tissue section staining and end
+with the generation of an OME-TIFF file. The documented protocol should also
+include any image processing steps involved in producing the final OME-TIFF.
+Example: https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
       <text>
-        <t>(Required) The specific type of dataset being produced.</t>
+        <t>(Required) The specific type of dataset being produced. Example: RNAseq</t>
       </text>
     </comment>
     <comment ref="E1" authorId="1">
       <text>
-        <t>(Required) Analytes are the target molecules being measured with the assay.</t>
+        <t>(Required) The analyte class which is the target molecule that the assay is
+measuring. Example: DNA</t>
       </text>
     </comment>
     <comment ref="F1" authorId="1">
       <text>
-        <t>(Required) Specifies whether or not a specific molecule(s) is/are targeted for
-detection/measurement by the assay ("Yes" or "No"). The CODEX analyte is
-protein.</t>
+        <t>(Required) Indicates whether a specific molecule or set of molecules is targeted
+for detection or measurement by the assay. Example: Yes</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1">
       <text>
-        <t>(Required) An acquisition instrument is the device that contains the signal
-detection hardware and signal processing software. Assays generate signals such
-as light of various intensities or color or signals representing the molecular
-mass.</t>
+        <t>(Required) The company that manufactures or supplies the acquisition instrument.
+An acquisition instrument is a device equipped with signal detection hardware
+and signal processing software. It captures signals produced by assays, such as
+variations in light intensity or color, or signals corresponding to molecular
+mass. If the instrument was custom-built or developed internally, enter
+"In-House". Example: Illumina</t>
       </text>
     </comment>
     <comment ref="H1" authorId="1">
       <text>
-        <t>(Required) Manufacturers of an acquisition instrument may offer various versions
-(models) of that instrument with different features or sensitivities.
-Differences in features or sensitivities may be relevant to processing or
-interpretation of the data.</t>
+        <t>(Required) The specific model of the acquisition instrument, as manufacturers
+often offer various versions with differing features or sensitivities. These
+differences may be relevant to the processing or interpretation of the data. If
+the instrument was custom-built or developed internally, enter "In-House". If
+the model is unknown, enter "Unknown". Example: HiSeq 4000</t>
       </text>
     </comment>
     <comment ref="I1" authorId="1">
       <text>
-        <t>(Required) How long was the source material stored, prior to this sample being
-processed? For assays applied to tissue sections, this would be how long the
-tissue section (e.g., slide) was stored, prior to the assay beginning (e.g.,
-imaging). For assays applied to suspensions such as sequencing, this would be
-how long the suspension was stored before library construction began.</t>
+        <t>(Required) The length of time the sample was stored prior to processing it. For
+assays performed on tissue sections, this refers to how long the tissue section
+(e.g., slide) was stored before the assay began (e.g., imaging). For assays
+performed on suspensions, such as sequencing, it refers to how long the
+suspension was stored before library construction started. Example: 12</t>
       </text>
     </comment>
     <comment ref="J1" authorId="1">
       <text>
-        <t>(Required) The time duration unit of measurement</t>
+        <t>(Required) The unit of measurement used to specify the source storage duration
+value. Example: hour</t>
       </text>
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acquisition instrument was last serviced or
-calibrated. This provides a metric for assessing drift in data capture.</t>
+        <t>The length of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture. Example:
+10</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
       <text>
-        <t>The time unit of measurement</t>
+        <t>The unit of measurement used to specify the time since acquisition instrument
+calibration value. Example: month</t>
       </text>
     </comment>
     <comment ref="M1" authorId="1">
       <text>
-        <t>(Required) The path to the file with the ORCID IDs for all contributors of this
-dataset (e.g., "./extras/contributors.tsv" or "./contributors.tsv"). This is an
-internal metadata field that is just used for ingest.</t>
+        <t>(Required) The name of the file containing the ORCID IDs for all contributors to
+this dataset. Example: ./contributors.csv</t>
       </text>
     </comment>
     <comment ref="N1" authorId="1">
       <text>
-        <t>(Required) The top level directory containing the raw and/or processed data. For
-a single dataset upload this might be "." where as for a data upload containing
-multiple datasets, this would be the directory name for the respective dataset.
-For instance, if the data is within a directory called "TEST001-RK" use syntax
-"./TEST001-RK" for this field. If there are multiple directory levels, use the
-format "./TEST001-RK/Run1/Pass2" in which "Pass2" is the subdirectory where the
-single dataset's data is stored. This is an internal metadata field that is just
-used for ingest.</t>
+        <t>(Required) The top-level directory containing the raw and/or processed data. For
+a single dataset upload, this might be represented as ".", whereas for a data
+upload containing multiple datasets, this would be the directory name for the
+respective dataset. For example, if the data is within a directory named
+"TEST001-RK", use the syntax "./TEST001-RK" for this field. If there are
+multiple directory levels, use the format "./TEST001-RK/Run1/Pass2", where
+"Pass2" is the subdirectory where the single dataset's data is stored. This is
+an internal metadata field used solely for data ingestion. Example: ./TEST001-RK</t>
       </text>
     </comment>
     <comment ref="O1" authorId="1">
       <text>
-        <t>For Visium, this is the area of spots that was covered by tissue within the
-captured area, not the total possible captured area which is fixed. For GeoMx
-this would be the area of the AOI being captured. For HiFi this is the summed
-area of the ROIs in a single flowcell lane. For CosMx and Resolve, this is the
-area of the FOV (aka ROI) region being captured. For Xenium this is the total
-area of the FOV regions (aka ROI) being captured. For Stereo-Seq this is the
-number of beads.</t>
+        <t>(Required) The mapped area value, which refers to the specific area covered or
+captured in various assays. For Visium, it is the area of spots covered by
+tissue within the captured area, excluding the total possible captured area. For
+GeoMx, it refers to the area of the AOI being captured. In HiFi, it is the
+summed area of the ROIs in a single flowcell lane. For CosMx and Resolve, it
+indicates the area of the FOV (also known as ROI) region being captured. For
+Xenium, it is the total area of the FOV regions (also known as ROI) being
+captured. For Stereo-Seq, this value represents the number of beads. Example:
+42.25</t>
       </text>
     </comment>
     <comment ref="P1" authorId="1">
       <text>
-        <t>(Required) The unit of measurement for the mapping area. For Visium and GeoMx
-this is typically um^2.</t>
+        <t>(Required) The unit of measurement for the mapped area value. If mapping area is
+not specified, this field may be left blank. Example: um^2</t>
       </text>
     </comment>
     <comment ref="Q1" authorId="1">
       <text>
-        <t>(Required) For assays where spots are used to define discrete capture areas,
-this is the area of a spot.</t>
+        <t>(Required) The area of a spot used in assays where spots define discrete capture
+areas.  Example: 2375.9</t>
       </text>
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>(Required) The unit for spot size value.</t>
+        <t>(Required) The unit of measurement for the spot size value. If no spot size
+value is specified, this field may be left blank. Example: um^2</t>
       </text>
     </comment>
     <comment ref="S1" authorId="1">
@@ -177,8 +183,8 @@
     </comment>
     <comment ref="T1" authorId="1">
       <text>
-        <t>(Required) Approximate center-to-center distance between capture spots. 
-Synonyms: Inter-Spot distance, Spot resolution, Pit size</t>
+        <t>(Required) The approximate center-to-center distance between capture spots, also
+known as inter-spot distance, spot resolution, or pit size. Example: 100</t>
       </text>
     </comment>
     <comment ref="U1" authorId="1">
@@ -188,8 +194,9 @@
     </comment>
     <comment ref="V1" authorId="1">
       <text>
-        <t>Which capture area on the slide was used. For Visium this would be [A1, B1, C1,
-D1]. For HiFi this would be the lane on the flowcell.</t>
+        <t>The capture area on the slide that was used during the process. For example, in
+the case for Visium, this would correspond to areas such as [A1, B1, C1, D1],
+while for HiFi, it would refer to the lane on the flowcell. Example: A1</t>
       </text>
     </comment>
     <comment ref="W1" authorId="1">
@@ -204,67 +211,76 @@
     </comment>
     <comment ref="Y1" authorId="1">
       <text>
-        <t>(Required) A unique ID denoting the slide used. This allows users the ability to
+        <t>(Required) The unique identifier assigned to each slide, enabling users to
 determine which tissue sections were processed together on the same slide. It is
-recommended that data providers prefix the ID with the center name, to prevent
-values overlapping across centers.</t>
+recommended that data providers prefix the ID with the center name to prevent
+overlapping values across different centers. Example: VAN0071-PA-1-1_AF</t>
       </text>
     </comment>
     <comment ref="Z1" authorId="1">
       <text>
-        <t>(Required) Will normally be 100 degrees Celsius for RNA assays, and 80 degrees
-Celsius for protein assays.</t>
+        <t>(Required) The incubation temperature required for target retrieval, which is
+typically 100 degrees Celsius for RNA assays and 80 degrees Celsius for protein
+assays. Example: 100</t>
       </text>
     </comment>
     <comment ref="AA1" authorId="1">
       <text>
         <t>(Required) The duration for which a sample is exposed to a target retrieval
-solution.</t>
+solution. Example: 15</t>
       </text>
     </comment>
     <comment ref="AB1" authorId="1">
       <text>
-        <t>(Required) The units for target retrieval incubation time value.</t>
+        <t>(Required) The unit of measurement for the target retrieval incubation time
+value. If no incubation time is specified, this field may be left blank.
+Example: minute</t>
       </text>
     </comment>
     <comment ref="AC1" authorId="1">
       <text>
-        <t>(Required) The amount or concentration of the enzyme Proteinase K within a
-sample (in ug/ml).</t>
+        <t>(Required) The concentration of the enzyme Proteinase K within a sample,
+measured in micrograms per milliliter (ug/ml). Example: 10</t>
       </text>
     </comment>
     <comment ref="AD1" authorId="1">
       <text>
-        <t>(Required) The duration for which a sample is exposed to Proteinase K.</t>
+        <t>(Required) The duration for which a sample is incubated with Proteinase K.
+Example: 15</t>
       </text>
     </comment>
     <comment ref="AE1" authorId="1">
       <text>
-        <t>(Required) The units for proteinaseK incubation time value.</t>
+        <t>(Required) The unit of measurement for the proteinaseK incubation time value. If
+no incubation time is specified, this field may be left blank. Example: minute</t>
       </text>
     </comment>
     <comment ref="AF1" authorId="1">
       <text>
-        <t>A label for the region of interest. For Resolve and CosMx, this is the field of
-view (FOV) label. For Xenium this is the ID of the region containing the
-analysis. For GeoMx this can be found in the "Initial Dataset" spreadsheet
-(download from within Data Analysis Suite).</t>
+        <t>The label for the region of interest (ROI). For Resolve and CosMx, this
+corresponds to the field of view (FOV) label. In the case of Xenium, it refers
+to the ID of the region containing the analysis. For GeoMx, this information can
+be located in the "Initial Dataset" spreadsheet, which can be downloaded from
+within the Data Analysis Suite. Example: Decidua</t>
       </text>
     </comment>
     <comment ref="AG1" authorId="1">
       <text>
-        <t>The overarching anatomical structure.</t>
+        <t>The label for the overarching anatomical structure. If the anatomical structure
+is not applicable or not specified, this field may be left blank. Example:
+Kidney</t>
       </text>
     </comment>
     <comment ref="AH1" authorId="1">
       <text>
-        <t>The ontology ID for the parent structure. Typically this would be an UBERON ID.</t>
+        <t>The ontology ID associated with the anatomical structure, typically represented
+by an UBERON ID. Example: UBERON:0002113</t>
       </text>
     </comment>
     <comment ref="AI1" authorId="1">
       <text>
-        <t>(Required) The string that serves as the definitive identifier for the metadata
-schema version and is readily interpretable by computers for data validation and
+        <t>(Required) The unique string identifier for the metadata specification version,
+which is easily interpretable by computers for purposes of data validation and
 processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
       </text>
     </comment>
@@ -273,7 +289,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="416">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -299,34 +315,172 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
+    <t>COMET</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000458</t>
+  </si>
+  <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
+    <t>DESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
+  </si>
+  <si>
+    <t>Confocal</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+  </si>
+  <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
+  </si>
+  <si>
+    <t>Molecular Cartography</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
+  </si>
+  <si>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
+  </si>
+  <si>
+    <t>Seq-Scope</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
+  </si>
+  <si>
+    <t>CosMx Transcriptomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
+  </si>
+  <si>
+    <t>CyCIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
+  </si>
+  <si>
+    <t>Light Sheet</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+  </si>
+  <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
+  </si>
+  <si>
+    <t>CosMx Proteomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
+  </si>
+  <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
+    <t>Visium HD</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000451</t>
+  </si>
+  <si>
+    <t>MERFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
+  </si>
+  <si>
+    <t>10X Multiome</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
+  </si>
+  <si>
+    <t>4i</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000447</t>
+  </si>
+  <si>
+    <t>PhenoCycler</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
+  </si>
+  <si>
+    <t>Second Harmonic Generation (SHG)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
+  </si>
+  <si>
+    <t>Thick section Multiphoton MxIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
+    <t>Olink</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000441</t>
+  </si>
+  <si>
     <t>MIBI</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
   </si>
   <si>
-    <t>Visium (no probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
-  </si>
-  <si>
-    <t>DESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
-  </si>
-  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000205</t>
   </si>
   <si>
-    <t>Confocal</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+    <t>FACS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000440</t>
   </si>
   <si>
     <t>Xenium</t>
@@ -335,36 +489,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
-    <t>Stereo-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
-  </si>
-  <si>
-    <t>Visium (with probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
-  </si>
-  <si>
-    <t>Molecular Cartography</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
-  </si>
-  <si>
-    <t>CosMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
-  </si>
-  <si>
-    <t>DBiT-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
-  </si>
-  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -395,16 +519,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
   </si>
   <si>
-    <t>CyCIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
-  </si>
-  <si>
-    <t>Light Sheet</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+    <t>Pixel-seqV2</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000450</t>
   </si>
   <si>
     <t>MALDI</t>
@@ -413,24 +531,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
-    <t>seqFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
-  </si>
-  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>ATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
-  </si>
-  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -461,18 +567,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
-    <t>Singular Genomics G4X</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
-  </si>
-  <si>
-    <t>MERFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
-  </si>
-  <si>
     <t>LC-MS</t>
   </si>
   <si>
@@ -485,12 +579,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
   </si>
   <si>
-    <t>10X Multiome</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
-  </si>
-  <si>
     <t>GeoMx (nCounter)</t>
   </si>
   <si>
@@ -503,34 +591,16 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
   </si>
   <si>
-    <t>PhenoCycler</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
-  </si>
-  <si>
-    <t>Second Harmonic Generation (SHG)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
-  </si>
-  <si>
-    <t>Thick section Multiphoton MxIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
-  </si>
-  <si>
     <t>MS Lipidomics</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
   </si>
   <si>
-    <t>CyTOF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+    <t>MPLEx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000448</t>
   </si>
   <si>
     <t>analyte_class</t>
@@ -668,6 +738,18 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
+    <t>Complete Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027007</t>
+  </si>
+  <si>
+    <t>3DHISTECH</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027042</t>
+  </si>
+  <si>
     <t>GE Healthcare</t>
   </si>
   <si>
@@ -782,12 +864,24 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>Cytek Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027071</t>
+  </si>
+  <si>
     <t>10x Genomics</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
+    <t>Microscopes International</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027094</t>
+  </si>
+  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
@@ -821,6 +915,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Pannoramic MIDI II Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024834</t>
+  </si>
+  <si>
     <t>Not applicable</t>
   </si>
   <si>
@@ -929,6 +1029,12 @@
     <t>https://identifiers.org/RRID:SCR_019916</t>
   </si>
   <si>
+    <t>uScopeHXII-20</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027101</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -1007,6 +1113,12 @@
     <t>https://identifiers.org/RRID:SCR_016381</t>
   </si>
   <si>
+    <t>Axio Zoom.V16</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027090</t>
+  </si>
+  <si>
     <t>Digital Spatial Profiler</t>
   </si>
   <si>
@@ -1043,6 +1155,12 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
+    <t>Cytek Northern Lights</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027072</t>
+  </si>
+  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
@@ -1133,6 +1251,9 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>https://identifiers.org/RRID:SCR_027323</t>
+  </si>
+  <si>
     <t>MERSCOPE</t>
   </si>
   <si>
@@ -1157,6 +1278,18 @@
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
+    <t>solariX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027095</t>
+  </si>
+  <si>
+    <t>Panoramic 150 Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027467</t>
+  </si>
+  <si>
     <t>Aperio AT2</t>
   </si>
   <si>
@@ -1169,6 +1302,12 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
+    <t>Biomark HD</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_022658</t>
+  </si>
+  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -1193,6 +1332,12 @@
     <t>https://identifiers.org/RRID:SCR_020927</t>
   </si>
   <si>
+    <t>Juno System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027198</t>
+  </si>
+  <si>
     <t>Q Exactive HF</t>
   </si>
   <si>
@@ -1385,7 +1530,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-05-12T10:16:53-07:00</t>
+    <t>2025-10-22T11:06:27-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1551,97 +1696,97 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>364</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2">
@@ -1649,13 +1794,13 @@
         <v>4</v>
       </c>
       <c r="AI2" t="s" s="36">
-        <v>365</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="25">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$41</formula1>
+      <formula1>'dataset_type'!$A$1:$A$50</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1664,10 +1809,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$77</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1757,18 +1902,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>329</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>331</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -1786,10 +1931,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>338</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -1807,62 +1952,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>340</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>341</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>342</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>343</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>344</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>345</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>346</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>347</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>348</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>349</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>350</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>351</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -1880,10 +2025,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>321</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -1901,10 +2046,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>321</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -1922,10 +2067,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>321</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -1949,16 +2094,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>371</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2">
@@ -1966,13 +2111,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>372</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -1982,7 +2127,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2314,6 +2459,78 @@
       </c>
       <c r="B41" t="s" s="0">
         <v>85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2331,130 +2548,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2472,12 +2689,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2487,7 +2704,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2495,210 +2712,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>172</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>174</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2708,7 +2957,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2716,546 +2965,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>177</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>179</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>181</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>183</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>185</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>187</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>189</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>191</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>193</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>195</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>199</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>201</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>203</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>205</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>207</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>209</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>211</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>215</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>217</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>219</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>221</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>223</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>227</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>229</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>231</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>233</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>235</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>237</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>239</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>241</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>243</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>245</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>247</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>249</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>251</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>253</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>255</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>257</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>259</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>261</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>263</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>265</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>267</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>269</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>271</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>273</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>275</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>277</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>279</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>281</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>283</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>285</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>287</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>291</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>149</v>
+        <v>318</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>150</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>292</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>293</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>295</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>297</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>299</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>300</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>301</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>303</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>305</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>307</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>309</v>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3273,42 +3594,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>313</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>315</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>317</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>319</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>321</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3326,26 +3647,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>315</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>317</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>319</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3363,18 +3684,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>329</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>331</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/hifi-slide/v2.0.0/hifi-slide-v2.0.0.xlsx
+++ b/hifi-slide/v2.0.0/hifi-slide-v2.0.0.xlsx
@@ -289,7 +289,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="418">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -357,6 +357,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
   </si>
   <si>
+    <t>Virtual Histology</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000473</t>
+  </si>
+  <si>
     <t>DBiT-seq</t>
   </si>
   <si>
@@ -612,18 +618,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
-    <t>Nucleic acid + protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
+    <t>RNA + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000474</t>
+  </si>
+  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -1530,7 +1536,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-10-22T11:06:27-07:00</t>
+    <t>2025-11-19T14:44:12-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1696,97 +1702,97 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2">
@@ -1794,13 +1800,13 @@
         <v>4</v>
       </c>
       <c r="AI2" t="s" s="36">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="25">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$50</formula1>
+      <formula1>'dataset_type'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1902,18 +1908,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -1931,10 +1937,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -1952,62 +1958,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -2025,10 +2031,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -2046,10 +2052,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -2067,10 +2073,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -2094,16 +2100,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2">
@@ -2111,13 +2117,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -2127,7 +2133,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2531,6 +2537,14 @@
       </c>
       <c r="B50" t="s" s="0">
         <v>103</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2548,130 +2562,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2689,12 +2703,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2712,242 +2726,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2965,618 +2979,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3594,42 +3608,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3647,26 +3661,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3684,18 +3698,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/hifi-slide/v2.0.0/hifi-slide-v2.0.0.xlsx
+++ b/hifi-slide/v2.0.0/hifi-slide-v2.0.0.xlsx
@@ -289,7 +289,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="420">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -618,6 +618,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
@@ -1536,7 +1542,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-11-19T14:44:12-08:00</t>
+    <t>2025-11-20T09:45:11-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1705,94 +1711,94 @@
         <v>106</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2">
@@ -1800,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="AI2" t="s" s="36">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -1809,7 +1815,7 @@
       <formula1>'dataset_type'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$16</formula1>
+      <formula1>'analyte_class'!$A$1:$A$17</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -1908,18 +1914,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -1937,10 +1943,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -1958,62 +1964,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -2031,10 +2037,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -2052,10 +2058,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -2073,10 +2079,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -2100,16 +2106,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2">
@@ -2117,13 +2123,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -2554,7 +2560,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2686,6 +2692,14 @@
       </c>
       <c r="B16" t="s" s="0">
         <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2703,12 +2717,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2726,242 +2740,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2979,474 +2993,474 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60">
@@ -3454,143 +3468,143 @@
         <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3608,42 +3622,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3661,26 +3675,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3698,18 +3712,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
